--- a/accounts.xlsx
+++ b/accounts.xlsx
@@ -15,21 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
-  <si>
-    <t>samrawit.birh75</t>
-  </si>
-  <si>
-    <t>unityet@1</t>
-  </si>
-  <si>
-    <t>daye.kiros.754</t>
-  </si>
-  <si>
-    <t>Unityet@1</t>
-  </si>
-  <si>
-    <t>genet.haftu.114</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+  <si>
+    <t>fikir.tessema.71</t>
+  </si>
+  <si>
+    <t>sheldon1@et</t>
+  </si>
+  <si>
+    <t>betty.tewe.965</t>
   </si>
   <si>
     <t>power1@1</t>
@@ -53,34 +47,7 @@
     <t>filimon.bir.311</t>
   </si>
   <si>
-    <t>betty.tewe.965</t>
-  </si>
-  <si>
     <t>eden.ts.37625</t>
-  </si>
-  <si>
-    <t>rahwa5201</t>
-  </si>
-  <si>
-    <t>filimon.a.5437</t>
-  </si>
-  <si>
-    <t>yirga.ale.9</t>
-  </si>
-  <si>
-    <t>samri.hheal.9</t>
-  </si>
-  <si>
-    <t>nasefa.nebu</t>
-  </si>
-  <si>
-    <t>daye34</t>
-  </si>
-  <si>
-    <t>mahleg.1203</t>
-  </si>
-  <si>
-    <t>mahlet.te.5249</t>
   </si>
 </sst>
 </file>
@@ -88,7 +55,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,12 +66,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -142,7 +103,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -150,14 +111,8 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -461,166 +416,94 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="19.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="11.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="19.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="54.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>1</v>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/accounts.xlsx
+++ b/accounts.xlsx
@@ -17,10 +17,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
-    <t>fikir.tessema.71</t>
-  </si>
-  <si>
-    <t>sheldon1@et</t>
+    <t>amleset.aragaw</t>
+  </si>
+  <si>
+    <t>Squad1234</t>
   </si>
   <si>
     <t>betty.tewe.965</t>
